--- a/output/fit_clients/fit_round_388.xlsx
+++ b/output/fit_clients/fit_round_388.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2129624601.424252</v>
+        <v>1701494804.344371</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09278181062743485</v>
+        <v>0.1065749949931981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03431061035360883</v>
+        <v>0.04043352493541855</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1064812313.76835</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2231919725.322501</v>
+        <v>2084009904.815355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1504692442286544</v>
+        <v>0.1367619494301671</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03426549585905805</v>
+        <v>0.03716745546579207</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1115959938.645805</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3665565859.990742</v>
+        <v>4461601040.063377</v>
       </c>
       <c r="F4" t="n">
-        <v>0.131472579407845</v>
+        <v>0.1208459994364482</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03647239954320022</v>
+        <v>0.02711000620385329</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>140</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1832782920.496534</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3988822201.25605</v>
+        <v>3478267104.238596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1081012144033974</v>
+        <v>0.09037254264562569</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05076216565586431</v>
+        <v>0.03706963145482807</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>143</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1994411105.049659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2612349599.877927</v>
+        <v>1921901191.371565</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1173911100660152</v>
+        <v>0.1373501978152251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04652615391687243</v>
+        <v>0.04299430093745777</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>72</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1306174763.275481</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2311328330.735302</v>
+        <v>2065997379.334677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07935522356782396</v>
+        <v>0.09959241926884355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03873563969810887</v>
+        <v>0.04754539492972011</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1155664196.621284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3482760115.63523</v>
+        <v>3738616801.209056</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1904786556319705</v>
+        <v>0.215335452405161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02252664640141661</v>
+        <v>0.02676637587005854</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1741380164.698327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2013449696.644564</v>
+        <v>1595826834.69009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1572382727384077</v>
+        <v>0.1755437419181235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03259524322737558</v>
+        <v>0.029950437647257</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1006724873.074061</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3986117495.945456</v>
+        <v>5042728199.223819</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2162841710913639</v>
+        <v>0.1505068280412675</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04584544417743133</v>
+        <v>0.04986990053205988</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>163</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1993058768.83041</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2962815278.593472</v>
+        <v>2852657826.375679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1626978283447982</v>
+        <v>0.1535354497198102</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04188843261385728</v>
+        <v>0.04231582953469614</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>160</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1481407579.644747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2013483038.231909</v>
+        <v>2088359865.82581</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1880255970806993</v>
+        <v>0.1217826834511216</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05145770301511438</v>
+        <v>0.05285957781769005</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>132</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1006741446.785111</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3495491097.718754</v>
+        <v>3979753575.091292</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07293554610071841</v>
+        <v>0.08862003259437579</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02523862522141889</v>
+        <v>0.02238675071447941</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>130</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1747745629.42565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3014098556.567666</v>
+        <v>3041664525.345972</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781115125022357</v>
+        <v>0.1721057225836726</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03007613989654147</v>
+        <v>0.0327449554747715</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1507049311.71655</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1480544278.783549</v>
+        <v>1644772751.328916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.093407185877905</v>
+        <v>0.09589454998526988</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04918183267471223</v>
+        <v>0.03424354971129654</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>740272220.4887722</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2533544238.116478</v>
+        <v>2854512410.480174</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1144943173217212</v>
+        <v>0.0896004411754622</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05016378497333935</v>
+        <v>0.04800800920393563</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1266772146.886749</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4510100800.976156</v>
+        <v>3714064806.802185</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1313926777790933</v>
+        <v>0.1443646880432418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03865665501134888</v>
+        <v>0.0390514362876797</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2255050409.842631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2885529774.858115</v>
+        <v>2445650230.207225</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1211994540983525</v>
+        <v>0.1581581360978582</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03223842112481722</v>
+        <v>0.02979270447398599</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>127</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1442764925.966624</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>920715405.3596627</v>
+        <v>1338478054.12432</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1168925354012983</v>
+        <v>0.150335670199383</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01691419503859177</v>
+        <v>0.02255783514720588</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>460357712.6649168</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2776660678.281727</v>
+        <v>2491735630.825115</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1580674465441578</v>
+        <v>0.112508084415025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0315413084930516</v>
+        <v>0.02478509356051453</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1388330282.755797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2587719454.825703</v>
+        <v>2383443977.320203</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1021045183406543</v>
+        <v>0.09787826266998177</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03267793924407706</v>
+        <v>0.04534998758803813</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1293859707.161439</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3175047418.918655</v>
+        <v>3206750129.631145</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1068992728172984</v>
+        <v>0.1383978266803888</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05404639512365516</v>
+        <v>0.05664619570642185</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>107</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1587523760.51781</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1420423607.767343</v>
+        <v>1298352347.778249</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1743372658427112</v>
+        <v>0.1587197884200152</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05435387357600255</v>
+        <v>0.03679887130049058</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>710211803.238296</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3282456656.864365</v>
+        <v>2877618622.555146</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1065655883747028</v>
+        <v>0.1357604579939923</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03409477661545549</v>
+        <v>0.02519791465887249</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>113</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1641228344.686783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1465247959.869628</v>
+        <v>1028389470.825452</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08637466518748309</v>
+        <v>0.1012112204433103</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02860963582893418</v>
+        <v>0.02109332832765325</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>732623936.896533</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1279375986.306996</v>
+        <v>1027564610.980945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1086845283487294</v>
+        <v>0.08884768822347734</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03276329631747977</v>
+        <v>0.02611652592237909</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>639688033.6119388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3481645704.691967</v>
+        <v>3208847556.676978</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1019884496067173</v>
+        <v>0.1170100753209931</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0204716560959389</v>
+        <v>0.02378416967595275</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>94</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1740822888.237946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3697168790.582663</v>
+        <v>2696228759.984469</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09926837478867334</v>
+        <v>0.1223819158863637</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03162650791628421</v>
+        <v>0.03728584403931715</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>125</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1848584467.039513</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4009674320.428034</v>
+        <v>5753101171.392738</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1303868909383489</v>
+        <v>0.1167560282352493</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04647550123467591</v>
+        <v>0.04540077902019691</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>171</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2004837176.452562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2375922808.37626</v>
+        <v>1824506421.503747</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09837887763692016</v>
+        <v>0.1130055725258499</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02450006375385895</v>
+        <v>0.03643700813907559</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1187961484.449856</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1144017598.492055</v>
+        <v>1150392530.045477</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07635688228298991</v>
+        <v>0.09205103354337514</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03255739109938991</v>
+        <v>0.04083514824521434</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>572008763.8893803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1162497206.077242</v>
+        <v>1328745828.67821</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09823127211068879</v>
+        <v>0.08347901374347309</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02489588144924566</v>
+        <v>0.03650747493316988</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>581248601.509912</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2187172653.701904</v>
+        <v>1979434503.251005</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1545952030793573</v>
+        <v>0.1471835037974381</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04472452087824799</v>
+        <v>0.05204093823680033</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1093586391.698641</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>995347555.3185531</v>
+        <v>1248016799.852366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07492691939674451</v>
+        <v>0.1028614031476584</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02781019975715859</v>
+        <v>0.02338598044974289</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>497673816.270362</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>960321521.4639626</v>
+        <v>964117289.7237545</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07640209037203602</v>
+        <v>0.1081003736645292</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02892582778746761</v>
+        <v>0.03158886378682226</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>480160788.0404146</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2865625246.406427</v>
+        <v>2062981468.639805</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1196883365352139</v>
+        <v>0.1414907262850557</v>
       </c>
       <c r="G36" t="n">
-        <v>0.017667326345519</v>
+        <v>0.02459372076601334</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>98</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1432812615.909468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2826976589.570346</v>
+        <v>2801056365.645862</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1089961010373135</v>
+        <v>0.06874430548515947</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03412655174188348</v>
+        <v>0.03727024990944179</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1413488435.840013</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1882414373.746647</v>
+        <v>1864328288.059109</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1046245453512843</v>
+        <v>0.101582304103685</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02951334336563431</v>
+        <v>0.03615212388648091</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>941207182.1191498</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2121980201.991569</v>
+        <v>2127901303.474506</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1227774543996615</v>
+        <v>0.184543876130362</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02654460865827258</v>
+        <v>0.03007577700601637</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1060990077.03439</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439129598.95272</v>
+        <v>1114169009.071846</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1240680964361381</v>
+        <v>0.1379447545233983</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05310903612411164</v>
+        <v>0.036544219689617</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>719564780.9094325</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2703243334.854471</v>
+        <v>2465806162.553754</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1199741323931481</v>
+        <v>0.1499282726246055</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03475029114548982</v>
+        <v>0.03798892526872894</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1351621672.825744</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3060762216.666566</v>
+        <v>3153273050.186881</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012878733005002</v>
+        <v>0.09985050146721078</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03558152821007553</v>
+        <v>0.0407555948490876</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1530381072.96184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2040877742.450764</v>
+        <v>2097110097.425274</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1961829629572651</v>
+        <v>0.2057104698416433</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02269421981510959</v>
+        <v>0.02308853107258033</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1020438966.078132</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1971731562.718649</v>
+        <v>1614988952.684316</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07789076665475196</v>
+        <v>0.08051764666673386</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03190986715231794</v>
+        <v>0.0231184489704394</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>985865882.0629287</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1810908806.733549</v>
+        <v>1789520551.682926</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1914185186319374</v>
+        <v>0.1357783706953712</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05196678505370586</v>
+        <v>0.04059832652292769</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>905454375.1896327</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5189567550.026243</v>
+        <v>3564564375.370993</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1415311784481298</v>
+        <v>0.1287109135461106</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06056226883432092</v>
+        <v>0.04509942831986767</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>138</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2594783812.654544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4766789865.966026</v>
+        <v>5050383518.631711</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1902551523520773</v>
+        <v>0.154740148593329</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05531507506779113</v>
+        <v>0.04997654839850028</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>104</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2383394975.587306</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3586881738.733775</v>
+        <v>4394071384.469379</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07949499382682577</v>
+        <v>0.08107755501554234</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03842821775684264</v>
+        <v>0.02653817518730188</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1793440927.789803</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1858463422.558337</v>
+        <v>1957754735.947722</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1549988942619283</v>
+        <v>0.1285893065946113</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0322701394400533</v>
+        <v>0.03704666318309727</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>929231687.5988643</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2902497475.682506</v>
+        <v>4063599369.114525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1470409614977243</v>
+        <v>0.1450727380910975</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03472236502559636</v>
+        <v>0.04999058441601434</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>132</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1451248804.622445</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1159955883.174532</v>
+        <v>982362455.0395533</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1917388332983472</v>
+        <v>0.1264174617190997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03451593007091572</v>
+        <v>0.05184162308358897</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>579977999.6445462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3639769578.678815</v>
+        <v>3565135031.854344</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1174968296749017</v>
+        <v>0.08384456763809961</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05414568676696326</v>
+        <v>0.05743872601990978</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>160</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1819884867.031735</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3262081480.163557</v>
+        <v>2998431307.915905</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1595559556888622</v>
+        <v>0.1927730044155845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03271485799006145</v>
+        <v>0.03184742622683708</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>110</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1631040754.398543</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4253732848.537101</v>
+        <v>4104196841.73006</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1435068054078823</v>
+        <v>0.1181149084832312</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05150317990525736</v>
+        <v>0.04618205231209765</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>125</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2126866508.26052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3563115121.37508</v>
+        <v>4859315124.932503</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1514444374028747</v>
+        <v>0.2115549759688031</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02268110845717953</v>
+        <v>0.02447002431399885</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1781557516.35564</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1822234080.969229</v>
+        <v>1589764657.363981</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1301125421999356</v>
+        <v>0.1108804744906105</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04563051460926614</v>
+        <v>0.03588233404563157</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>911117035.0081602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4225099802.666632</v>
+        <v>4362233897.115603</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1480652235973691</v>
+        <v>0.1744333608521213</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0190757595663745</v>
+        <v>0.01873187120761476</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>123</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2112550008.613595</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1431895110.365348</v>
+        <v>1701760152.790526</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1602377141852863</v>
+        <v>0.1958314368299451</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03110222092503259</v>
+        <v>0.03112052578749372</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>715947592.5579542</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5333692271.14888</v>
+        <v>5286651069.529469</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07962156637827879</v>
+        <v>0.1130962686519385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03326315605602689</v>
+        <v>0.03355751974975903</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2666846047.207531</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2497591513.548272</v>
+        <v>3702982222.770439</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1676967046659343</v>
+        <v>0.1936798364448369</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02524728665928793</v>
+        <v>0.02328211859776481</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1248795774.436598</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3068352548.256121</v>
+        <v>2946645251.133856</v>
       </c>
       <c r="F61" t="n">
-        <v>0.142388140316364</v>
+        <v>0.1151858149440117</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02966391267713138</v>
+        <v>0.03078989015866448</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>134</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1534176248.164378</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913892983.013698</v>
+        <v>1557450986.744502</v>
       </c>
       <c r="F62" t="n">
-        <v>0.148274349193934</v>
+        <v>0.1402473658128068</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03046690101074222</v>
+        <v>0.03625656096712308</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>956946536.6814147</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3762695763.5639</v>
+        <v>4797609156.765064</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1074913960957707</v>
+        <v>0.06900393717183487</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04745761266892171</v>
+        <v>0.04194141004964179</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1881347954.767587</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3765198332.506707</v>
+        <v>4397738303.254209</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1269723724888068</v>
+        <v>0.1418667259681472</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02483661504872058</v>
+        <v>0.0216446577158533</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>121</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1882599185.610109</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4243734932.840302</v>
+        <v>5003712850.196568</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1278459719591277</v>
+        <v>0.163752956208937</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02585962220589499</v>
+        <v>0.02991178683482341</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>139</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2121867470.477726</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3861020884.416274</v>
+        <v>4624995577.325001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.160648269646795</v>
+        <v>0.1443422781033435</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03468367822165794</v>
+        <v>0.04329290163322624</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>113</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1930510408.396542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3395056257.040641</v>
+        <v>2792966745.437449</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08631653403906842</v>
+        <v>0.0896060057959813</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04296843475791816</v>
+        <v>0.05023132340061323</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>124</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1697528113.380103</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6064217693.509721</v>
+        <v>5718250364.997457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221644466863165</v>
+        <v>0.1349423529098145</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03796373710420074</v>
+        <v>0.03752155778478489</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3032108967.64498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2189674968.839769</v>
+        <v>2252426785.444315</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1486118445758237</v>
+        <v>0.1166812858373762</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0581978428597299</v>
+        <v>0.05235587518236869</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1094837513.891634</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3121490264.655373</v>
+        <v>3611078778.568291</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07439679237548863</v>
+        <v>0.08138776419927883</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04570844839454689</v>
+        <v>0.0323579874258754</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>110</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1560745117.215649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3823079268.187954</v>
+        <v>5293038729.592171</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1480130422559085</v>
+        <v>0.1117740557914727</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0217687173597734</v>
+        <v>0.03312345115929305</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>141</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1911539651.95289</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1717162658.232062</v>
+        <v>1614157589.369565</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08875040769764111</v>
+        <v>0.07391358556772232</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04897613646496881</v>
+        <v>0.0345038303355295</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>858581321.1063944</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3242263487.678628</v>
+        <v>3503520089.432235</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08096782272217194</v>
+        <v>0.0736400334674706</v>
       </c>
       <c r="G73" t="n">
-        <v>0.046718917908712</v>
+        <v>0.04924273792315062</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>147</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1621131717.65152</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3514454017.382305</v>
+        <v>2886498806.410969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1579392207633807</v>
+        <v>0.1196539017813958</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02157706461863637</v>
+        <v>0.02325948632663238</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>132</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1757227029.59238</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2193116835.159486</v>
+        <v>2010323952.15581</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1586663985824645</v>
+        <v>0.1089806475362669</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03797249988151083</v>
+        <v>0.02816693943140749</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1096558363.643037</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5074482456.782548</v>
+        <v>3561567101.245803</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1082304160574818</v>
+        <v>0.08934123661457857</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02172902781025021</v>
+        <v>0.03352925749459177</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2537241258.196881</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1534051880.223648</v>
+        <v>1406482515.366119</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1467359552255824</v>
+        <v>0.1838573704861244</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02194061342350923</v>
+        <v>0.02338049182051327</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>767025932.8313557</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4118205807.970619</v>
+        <v>3443293681.120681</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129088163452611</v>
+        <v>0.08502006816965171</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04966398787408598</v>
+        <v>0.04322886108872354</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>135</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2059102861.265395</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1637791941.917499</v>
+        <v>1413502377.012788</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1467930787436757</v>
+        <v>0.1142216502653233</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0373472807677495</v>
+        <v>0.03622854162768355</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>818896029.292908</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5227801819.071807</v>
+        <v>3590590476.777772</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1096707120855106</v>
+        <v>0.08860985974268396</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02867897920406064</v>
+        <v>0.03544396078537728</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2613900970.078271</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3573391112.291671</v>
+        <v>3252056256.345496</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1081099431388919</v>
+        <v>0.1212370383541594</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03102499811808077</v>
+        <v>0.02826021840425931</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1786695503.537809</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3447473918.481831</v>
+        <v>4887090933.894155</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1800343499212582</v>
+        <v>0.1851560719305955</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02009498569147744</v>
+        <v>0.02058836869298108</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1723737029.855649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2284109677.644861</v>
+        <v>2353215822.531711</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1191974659336706</v>
+        <v>0.09806932904801874</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04286998616527665</v>
+        <v>0.04225608214755588</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1142054859.536709</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1808283425.26422</v>
+        <v>2412420926.715044</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09916001485143658</v>
+        <v>0.08540924609887182</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03427022283096049</v>
+        <v>0.04915665213819476</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>904141745.7757567</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2834270047.496126</v>
+        <v>3150065928.072115</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1466567838027511</v>
+        <v>0.1480189977428815</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0382202188074648</v>
+        <v>0.03802337212818109</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>146</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1417135065.596176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2704956686.999287</v>
+        <v>2717935380.819286</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1421132859986622</v>
+        <v>0.1091638507575651</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01747719361205554</v>
+        <v>0.01799322858076638</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1352478469.173778</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265128591.083755</v>
+        <v>907030003.671385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1729781641115375</v>
+        <v>0.1170731076087476</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03648864423218295</v>
+        <v>0.03613133763059322</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>632564367.8349487</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2890091585.559025</v>
+        <v>2724449795.665297</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1252125383963909</v>
+        <v>0.1204687587686548</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03259007944078801</v>
+        <v>0.03979913075766072</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>153</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1445045812.389813</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2699901065.054309</v>
+        <v>2567938280.053338</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1595457403842292</v>
+        <v>0.09955245688258568</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03692193792751183</v>
+        <v>0.03242099830932182</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>131</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1349950592.661616</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1569296820.653068</v>
+        <v>1720630362.098883</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09318549830402116</v>
+        <v>0.09837839456279122</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05221562691270013</v>
+        <v>0.03405794226246325</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>784648401.7515563</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1846325662.297598</v>
+        <v>1721756067.169389</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1715050241697247</v>
+        <v>0.1922615352552081</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04035334400161835</v>
+        <v>0.04595056717753743</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>923162823.9371097</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2502916259.374856</v>
+        <v>2963932710.36089</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1094867275052442</v>
+        <v>0.1079488514968522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03902233549664601</v>
+        <v>0.04410465615890203</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1251458113.915672</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3818575034.408486</v>
+        <v>3155610370.523002</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1023248992434302</v>
+        <v>0.1041455766995264</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05147950545939396</v>
+        <v>0.04330262124848255</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>117</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1909287529.566709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1560527105.265809</v>
+        <v>2472008234.339746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1105227814638876</v>
+        <v>0.126357762692058</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03517368972275511</v>
+        <v>0.03392915706425274</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>780263493.851817</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3263648748.790138</v>
+        <v>3000343394.742114</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1350928401887265</v>
+        <v>0.1188775661141394</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04879028687254803</v>
+        <v>0.0518213835446214</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1631824354.99859</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1752192523.616957</v>
+        <v>1683918452.933046</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1098015454642648</v>
+        <v>0.1293162955374714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03660825861973698</v>
+        <v>0.02918660143117131</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>876096275.2542491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4091521729.602908</v>
+        <v>4310789572.313222</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1531512532555332</v>
+        <v>0.1280849951787549</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02817783050254211</v>
+        <v>0.02049953418094893</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2045760928.549906</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3879302999.357942</v>
+        <v>2402149447.879078</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09174969485537578</v>
+        <v>0.09482892372960042</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02813975955792967</v>
+        <v>0.02683729011178246</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>103</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1939651544.006257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2883759407.654738</v>
+        <v>2775569697.014981</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09629501002556579</v>
+        <v>0.1027944354606076</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03338632459786905</v>
+        <v>0.02148690853711068</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>122</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1441879681.35399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3318039422.236238</v>
+        <v>3032431093.341496</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1249173865707525</v>
+        <v>0.1788710627655598</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01730735117316765</v>
+        <v>0.02720139965043336</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>118</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1659019727.362414</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2917448080.52616</v>
+        <v>2711838500.931373</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1378005582297987</v>
+        <v>0.1797223001271823</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04296870184782071</v>
+        <v>0.03611012394877623</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>158</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1458724118.46643</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_388.xlsx
+++ b/output/fit_clients/fit_round_388.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1701494804.344371</v>
+        <v>1969556236.636134</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1065749949931981</v>
+        <v>0.0948245348172958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04043352493541855</v>
+        <v>0.0362923750711709</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2084009904.815355</v>
+        <v>2283208431.663516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1367619494301671</v>
+        <v>0.1845523096134668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03716745546579207</v>
+        <v>0.03970237754445124</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4461601040.063377</v>
+        <v>4190995327.441728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1208459994364482</v>
+        <v>0.1548441161996333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02711000620385329</v>
+        <v>0.02381633188343076</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3478267104.238596</v>
+        <v>3985209134.012631</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09037254264562569</v>
+        <v>0.08981200215722673</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03706963145482807</v>
+        <v>0.05026403308789801</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1921901191.371565</v>
+        <v>2057125203.031123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1373501978152251</v>
+        <v>0.09537842197461721</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04299430093745777</v>
+        <v>0.05234637981889462</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2065997379.334677</v>
+        <v>2694337352.858145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09959241926884355</v>
+        <v>0.0909200010742834</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04754539492972011</v>
+        <v>0.04315068056583958</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3738616801.209056</v>
+        <v>3503803633.478783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.215335452405161</v>
+        <v>0.1592331082700149</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02676637587005854</v>
+        <v>0.02810391498954106</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1595826834.69009</v>
+        <v>2184620831.599396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1755437419181235</v>
+        <v>0.1990884258233294</v>
       </c>
       <c r="G9" t="n">
-        <v>0.029950437647257</v>
+        <v>0.03072119801144967</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5042728199.223819</v>
+        <v>4237288752.96782</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1505068280412675</v>
+        <v>0.1731849927490713</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04986990053205988</v>
+        <v>0.04954737586930424</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2852657826.375679</v>
+        <v>3791367337.16495</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1535354497198102</v>
+        <v>0.1162158697577612</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04231582953469614</v>
+        <v>0.04647715229085403</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2088359865.82581</v>
+        <v>2073055942.302596</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1217826834511216</v>
+        <v>0.1276151248208834</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05285957781769005</v>
+        <v>0.0521616589339375</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3979753575.091292</v>
+        <v>5127086337.001796</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08862003259437579</v>
+        <v>0.1014754855632659</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02238675071447941</v>
+        <v>0.02826482724341589</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3041664525.345972</v>
+        <v>2608777983.509947</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1721057225836726</v>
+        <v>0.1593464048467703</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0327449554747715</v>
+        <v>0.04245403615310201</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1644772751.328916</v>
+        <v>1329782895.675335</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09589454998526988</v>
+        <v>0.1036037953376746</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03424354971129654</v>
+        <v>0.03282021012874127</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2854512410.480174</v>
+        <v>2003436984.579468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0896004411754622</v>
+        <v>0.09832797687085326</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04800800920393563</v>
+        <v>0.04655627696177177</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3714064806.802185</v>
+        <v>4235252032.222828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1443646880432418</v>
+        <v>0.1534998686098478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0390514362876797</v>
+        <v>0.04014941843570743</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2445650230.207225</v>
+        <v>3573817704.957461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1581581360978582</v>
+        <v>0.1170698012483491</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02979270447398599</v>
+        <v>0.02629749242526605</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1338478054.12432</v>
+        <v>1023430005.912072</v>
       </c>
       <c r="F19" t="n">
-        <v>0.150335670199383</v>
+        <v>0.1521511448749046</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02255783514720588</v>
+        <v>0.019718739599128</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2491735630.825115</v>
+        <v>1993377705.143575</v>
       </c>
       <c r="F20" t="n">
-        <v>0.112508084415025</v>
+        <v>0.1515116012216205</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02478509356051453</v>
+        <v>0.03072507689415483</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2383443977.320203</v>
+        <v>1653033270.44906</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09787826266998177</v>
+        <v>0.09521680744435962</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04534998758803813</v>
+        <v>0.02887105617357408</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3206750129.631145</v>
+        <v>2633793151.2928</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1383978266803888</v>
+        <v>0.1324937934518444</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05664619570642185</v>
+        <v>0.0434421964537117</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1298352347.778249</v>
+        <v>1363814707.341988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1587197884200152</v>
+        <v>0.1770704432419506</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03679887130049058</v>
+        <v>0.04212087230521328</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2877618622.555146</v>
+        <v>3978893500.814787</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1357604579939923</v>
+        <v>0.1395924474917968</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02519791465887249</v>
+        <v>0.02597980225047217</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028389470.825452</v>
+        <v>1083860641.839278</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1012112204433103</v>
+        <v>0.1036752754644385</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02109332832765325</v>
+        <v>0.0191459137827118</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1027564610.980945</v>
+        <v>930973296.9018117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08884768822347734</v>
+        <v>0.08473992878208497</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02611652592237909</v>
+        <v>0.03101270542475204</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3208847556.676978</v>
+        <v>4368898937.179991</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1170100753209931</v>
+        <v>0.1132770032757137</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02378416967595275</v>
+        <v>0.01669617005090957</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2696228759.984469</v>
+        <v>2354560080.261793</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1223819158863637</v>
+        <v>0.1451940556263134</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03728584403931715</v>
+        <v>0.04902523541932452</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5753101171.392738</v>
+        <v>4849790048.221957</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1167560282352493</v>
+        <v>0.1356807314565334</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04540077902019691</v>
+        <v>0.04069238446946873</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1824506421.503747</v>
+        <v>1542812540.036245</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1130055725258499</v>
+        <v>0.08783868077474358</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03643700813907559</v>
+        <v>0.03420417467326849</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1150392530.045477</v>
+        <v>971901471.7203878</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09205103354337514</v>
+        <v>0.1070370761772583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04083514824521434</v>
+        <v>0.04159978130901743</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1328745828.67821</v>
+        <v>1860494092.755029</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08347901374347309</v>
+        <v>0.08459509751884275</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03650747493316988</v>
+        <v>0.03468863909656823</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1979434503.251005</v>
+        <v>2249609025.617299</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1471835037974381</v>
+        <v>0.1482587729660294</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05204093823680033</v>
+        <v>0.05092496181615487</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1248016799.852366</v>
+        <v>982042245.1970557</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1028614031476584</v>
+        <v>0.103640336309209</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02338598044974289</v>
+        <v>0.02600749550317337</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>964117289.7237545</v>
+        <v>970436168.3930854</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1081003736645292</v>
+        <v>0.1131535957621975</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03158886378682226</v>
+        <v>0.03304091376135327</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2062981468.639805</v>
+        <v>2525581771.726534</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1414907262850557</v>
+        <v>0.1672317890691954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02459372076601334</v>
+        <v>0.02299880068185037</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2801056365.645862</v>
+        <v>2498693004.701931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06874430548515947</v>
+        <v>0.1009844302160448</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03727024990944179</v>
+        <v>0.04194658066164652</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1864328288.059109</v>
+        <v>2018879073.28501</v>
       </c>
       <c r="F38" t="n">
-        <v>0.101582304103685</v>
+        <v>0.08781573572601449</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03615212388648091</v>
+        <v>0.03537774099834437</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2127901303.474506</v>
+        <v>2016259895.513186</v>
       </c>
       <c r="F39" t="n">
-        <v>0.184543876130362</v>
+        <v>0.1195316856499566</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03007577700601637</v>
+        <v>0.02171958824761077</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1114169009.071846</v>
+        <v>1390142561.266721</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1379447545233983</v>
+        <v>0.1479046520021566</v>
       </c>
       <c r="G40" t="n">
-        <v>0.036544219689617</v>
+        <v>0.05437876576453263</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2465806162.553754</v>
+        <v>2045911564.975315</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1499282726246055</v>
+        <v>0.1467473870274042</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03798892526872894</v>
+        <v>0.04063398611638023</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3153273050.186881</v>
+        <v>3308856935.588035</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09985050146721078</v>
+        <v>0.1235273453354592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0407555948490876</v>
+        <v>0.03040544133775466</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2097110097.425274</v>
+        <v>1954620827.227684</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2057104698416433</v>
+        <v>0.1235983025215795</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02308853107258033</v>
+        <v>0.02431494778989916</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1614988952.684316</v>
+        <v>1682800508.965207</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08051764666673386</v>
+        <v>0.09781934484657799</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0231184489704394</v>
+        <v>0.02934661665479109</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1789520551.682926</v>
+        <v>2443418468.84986</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1357783706953712</v>
+        <v>0.119570587415917</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04059832652292769</v>
+        <v>0.04885132390184414</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3564564375.370993</v>
+        <v>4432044402.441708</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1287109135461106</v>
+        <v>0.1148559708679079</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04509942831986767</v>
+        <v>0.04621661567643071</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5050383518.631711</v>
+        <v>4220749146.226286</v>
       </c>
       <c r="F47" t="n">
-        <v>0.154740148593329</v>
+        <v>0.1457875834145931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04997654839850028</v>
+        <v>0.03881880129510796</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4394071384.469379</v>
+        <v>3697747322.43993</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08107755501554234</v>
+        <v>0.08072685572324138</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02653817518730188</v>
+        <v>0.03240535569166998</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1957754735.947722</v>
+        <v>1435291939.208808</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1285893065946113</v>
+        <v>0.1700301206757334</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03704666318309727</v>
+        <v>0.02824230336522474</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4063599369.114525</v>
+        <v>3690117817.211972</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450727380910975</v>
+        <v>0.1352584996314209</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04999058441601434</v>
+        <v>0.03224171893209832</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>982362455.0395533</v>
+        <v>1353240640.644066</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1264174617190997</v>
+        <v>0.1558154995520733</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05184162308358897</v>
+        <v>0.04343537743047002</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3565135031.854344</v>
+        <v>5003432064.887206</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08384456763809961</v>
+        <v>0.09093453696284538</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05743872601990978</v>
+        <v>0.04156887055953084</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2998431307.915905</v>
+        <v>3762793281.147312</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1927730044155845</v>
+        <v>0.1436640150133913</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03184742622683708</v>
+        <v>0.0238565966258199</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4104196841.73006</v>
+        <v>3785411366.577205</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1181149084832312</v>
+        <v>0.1255290343711664</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04618205231209765</v>
+        <v>0.04639241173586753</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4859315124.932503</v>
+        <v>4319627191.1342</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2115549759688031</v>
+        <v>0.2218428020898775</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02447002431399885</v>
+        <v>0.02980901229811922</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1589764657.363981</v>
+        <v>1710754152.721291</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1108804744906105</v>
+        <v>0.1359794517766272</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03588233404563157</v>
+        <v>0.05549924380356931</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4362233897.115603</v>
+        <v>3730494881.247828</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1744333608521213</v>
+        <v>0.164181213679196</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01873187120761476</v>
+        <v>0.0179976443915498</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1701760152.790526</v>
+        <v>1602041048.326075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1958314368299451</v>
+        <v>0.1349630711190349</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03112052578749372</v>
+        <v>0.03126558931928096</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5286651069.529469</v>
+        <v>3328550478.031833</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1130962686519385</v>
+        <v>0.1206892730488649</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03355751974975903</v>
+        <v>0.0324310123880766</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3702982222.770439</v>
+        <v>2675137466.595435</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1936798364448369</v>
+        <v>0.1788645310496386</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02328211859776481</v>
+        <v>0.02612920227944896</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2946645251.133856</v>
+        <v>2968118844.651036</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1151858149440117</v>
+        <v>0.1469457015348666</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03078989015866448</v>
+        <v>0.01993101347536719</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1557450986.744502</v>
+        <v>2040225503.860322</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1402473658128068</v>
+        <v>0.1448935418659548</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03625656096712308</v>
+        <v>0.04360290227356742</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4797609156.765064</v>
+        <v>3960888031.728967</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06900393717183487</v>
+        <v>0.1056212249643021</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04194141004964179</v>
+        <v>0.03073311269111234</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4397738303.254209</v>
+        <v>4064475233.568196</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1418667259681472</v>
+        <v>0.1309941092101682</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0216446577158533</v>
+        <v>0.02823353377900666</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5003712850.196568</v>
+        <v>5897407442.077355</v>
       </c>
       <c r="F65" t="n">
-        <v>0.163752956208937</v>
+        <v>0.1299323493581991</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02991178683482341</v>
+        <v>0.0287194210843005</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4624995577.325001</v>
+        <v>4577915714.522453</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1443422781033435</v>
+        <v>0.1038521866130451</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04329290163322624</v>
+        <v>0.0504676034761131</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2792966745.437449</v>
+        <v>3354371905.105781</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0896060057959813</v>
+        <v>0.08426789609001357</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05023132340061323</v>
+        <v>0.05052712588649732</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5718250364.997457</v>
+        <v>5853295986.108339</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1349423529098145</v>
+        <v>0.1549332622403857</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03752155778478489</v>
+        <v>0.05086378512530668</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2252426785.444315</v>
+        <v>2030851212.922378</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1166812858373762</v>
+        <v>0.182410953943334</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05235587518236869</v>
+        <v>0.058223406852869</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3611078778.568291</v>
+        <v>3312309694.703206</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08138776419927883</v>
+        <v>0.08404410531594121</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0323579874258754</v>
+        <v>0.04822161394597375</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5293038729.592171</v>
+        <v>5164471669.927319</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1117740557914727</v>
+        <v>0.1284283313812206</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03312345115929305</v>
+        <v>0.03109454586928871</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1614157589.369565</v>
+        <v>2004923767.102817</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07391358556772232</v>
+        <v>0.06579214206723569</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0345038303355295</v>
+        <v>0.03741266658572789</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3503520089.432235</v>
+        <v>3369337956.4068</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0736400334674706</v>
+        <v>0.1108143950105534</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04924273792315062</v>
+        <v>0.04798828266269504</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2886498806.410969</v>
+        <v>3596663720.414441</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1196539017813958</v>
+        <v>0.1612524515232378</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02325948632663238</v>
+        <v>0.03375233582663981</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2010323952.15581</v>
+        <v>1616838264.360302</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1089806475362669</v>
+        <v>0.1491895567911244</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02816693943140749</v>
+        <v>0.03381580991828424</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3561567101.245803</v>
+        <v>3501424767.672139</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08934123661457857</v>
+        <v>0.1229088108524207</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03352925749459177</v>
+        <v>0.02313670806186532</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1406482515.366119</v>
+        <v>2196269441.631277</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1838573704861244</v>
+        <v>0.163822989556632</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02338049182051327</v>
+        <v>0.02481849642839733</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3443293681.120681</v>
+        <v>4536340499.463793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08502006816965171</v>
+        <v>0.1087375749096735</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04322886108872354</v>
+        <v>0.05184365027226608</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1413502377.012788</v>
+        <v>1213778614.703777</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1142216502653233</v>
+        <v>0.1775243267063956</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03622854162768355</v>
+        <v>0.02655223284451188</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3590590476.777772</v>
+        <v>5058943507.929111</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08860985974268396</v>
+        <v>0.1051548270147724</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03544396078537728</v>
+        <v>0.02456461257388769</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3252056256.345496</v>
+        <v>3933536508.173573</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1212370383541594</v>
+        <v>0.1275329221546295</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02826021840425931</v>
+        <v>0.03119926428728144</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4887090933.894155</v>
+        <v>4572453178.338552</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1851560719305955</v>
+        <v>0.1869545685888156</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02058836869298108</v>
+        <v>0.02565340023549921</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2353215822.531711</v>
+        <v>1908286527.951762</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09806932904801874</v>
+        <v>0.1232955763877714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04225608214755588</v>
+        <v>0.03147408690315607</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2412420926.715044</v>
+        <v>1784167102.039993</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08540924609887182</v>
+        <v>0.07359426176656059</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04915665213819476</v>
+        <v>0.03545812711462074</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3150065928.072115</v>
+        <v>2877112348.435254</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1480189977428815</v>
+        <v>0.1851236214714711</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03802337212818109</v>
+        <v>0.05319555248043416</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2717935380.819286</v>
+        <v>2750089031.33404</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1091638507575651</v>
+        <v>0.1430914313846685</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01799322858076638</v>
+        <v>0.02268909108129669</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>907030003.671385</v>
+        <v>973461431.1005322</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1170731076087476</v>
+        <v>0.1613321838132463</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03613133763059322</v>
+        <v>0.03329098057267763</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2724449795.665297</v>
+        <v>2341407627.538715</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1204687587686548</v>
+        <v>0.1728230984288676</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03979913075766072</v>
+        <v>0.03548924677486267</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2567938280.053338</v>
+        <v>3494953057.924921</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09955245688258568</v>
+        <v>0.1381785149753146</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03242099830932182</v>
+        <v>0.02750870923194039</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1720630362.098883</v>
+        <v>1654195892.679375</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09837839456279122</v>
+        <v>0.1351047784329273</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03405794226246325</v>
+        <v>0.04287565430471699</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1721756067.169389</v>
+        <v>1778634233.370548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1922615352552081</v>
+        <v>0.1329660894361915</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04595056717753743</v>
+        <v>0.06155970076368966</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2963932710.36089</v>
+        <v>2581651076.397192</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1079488514968522</v>
+        <v>0.08269917373308402</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04410465615890203</v>
+        <v>0.03177478338278279</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3155610370.523002</v>
+        <v>3107018359.339419</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1041455766995264</v>
+        <v>0.1158019499836365</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04330262124848255</v>
+        <v>0.05207236889266968</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2472008234.339746</v>
+        <v>1624715591.158301</v>
       </c>
       <c r="F94" t="n">
-        <v>0.126357762692058</v>
+        <v>0.1459451420533883</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03392915706425274</v>
+        <v>0.02658366944100173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3000343394.742114</v>
+        <v>2244700759.2211</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1188775661141394</v>
+        <v>0.09573258192274668</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0518213835446214</v>
+        <v>0.05088587631528968</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1683918452.933046</v>
+        <v>2175886996.081545</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1293162955374714</v>
+        <v>0.0932317130021012</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02918660143117131</v>
+        <v>0.0310134880466075</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4310789572.313222</v>
+        <v>4301558581.338354</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1280849951787549</v>
+        <v>0.1772460893277017</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02049953418094893</v>
+        <v>0.02190803659927642</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2402149447.879078</v>
+        <v>3701860673.583081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09482892372960042</v>
+        <v>0.1285185377859475</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02683729011178246</v>
+        <v>0.02314341367726536</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2775569697.014981</v>
+        <v>2166988093.177937</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1027944354606076</v>
+        <v>0.1134668990174352</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02148690853711068</v>
+        <v>0.02150222091628319</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3032431093.341496</v>
+        <v>3862662797.414481</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1788710627655598</v>
+        <v>0.1211874639321596</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02720139965043336</v>
+        <v>0.01711527018293917</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2711838500.931373</v>
+        <v>2808198174.692922</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1797223001271823</v>
+        <v>0.1461599210846744</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03611012394877623</v>
+        <v>0.04719059993730927</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_388.xlsx
+++ b/output/fit_clients/fit_round_388.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1969556236.636134</v>
+        <v>1728880786.642205</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0948245348172958</v>
+        <v>0.08342825549000794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0362923750711709</v>
+        <v>0.0372563806771945</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2283208431.663516</v>
+        <v>2308527674.602285</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1845523096134668</v>
+        <v>0.1272489236014966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03970237754445124</v>
+        <v>0.03832084380006513</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4190995327.441728</v>
+        <v>4525742781.819666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1548441161996333</v>
+        <v>0.1446159710398342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02381633188343076</v>
+        <v>0.03492704240447687</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>388</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3985209134.012631</v>
+        <v>3054072406.179506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08981200215722673</v>
+        <v>0.0856660776164818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05026403308789801</v>
+        <v>0.04728290630899055</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>157</v>
+      </c>
+      <c r="J5" t="n">
+        <v>386</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2057125203.031123</v>
+        <v>2858766941.078681</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09537842197461721</v>
+        <v>0.1120251588984192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05234637981889462</v>
+        <v>0.03737174348349</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2694337352.858145</v>
+        <v>2811911358.283198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0909200010742834</v>
+        <v>0.09287274858516843</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04315068056583958</v>
+        <v>0.03928675108162172</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3503803633.478783</v>
+        <v>2802618588.091921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1592331082700149</v>
+        <v>0.1598904941972897</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02810391498954106</v>
+        <v>0.02480416829226227</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>105</v>
+      </c>
+      <c r="J8" t="n">
+        <v>386</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2184620831.599396</v>
+        <v>2237627191.76959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1990884258233294</v>
+        <v>0.1915154309936077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03072119801144967</v>
+        <v>0.03237889339289982</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4237288752.96782</v>
+        <v>4276191515.829046</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1731849927490713</v>
+        <v>0.2166581449757195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04954737586930424</v>
+        <v>0.04819407090623798</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>316</v>
+      </c>
+      <c r="J10" t="n">
+        <v>388</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3791367337.16495</v>
+        <v>3684101392.515044</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1162158697577612</v>
+        <v>0.1441845454078019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04647715229085403</v>
+        <v>0.04853137339136584</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>162</v>
+      </c>
+      <c r="J11" t="n">
+        <v>388</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2073055942.302596</v>
+        <v>2233888882.012087</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1276151248208834</v>
+        <v>0.1399541211227749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0521616589339375</v>
+        <v>0.03768215944844047</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +880,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5127086337.001796</v>
+        <v>4766419791.981522</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1014754855632659</v>
+        <v>0.101299502424682</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02826482724341589</v>
+        <v>0.02351852532799109</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>202</v>
+      </c>
+      <c r="J13" t="n">
+        <v>388</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52.0727788500603</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2608777983.509947</v>
+        <v>2838968548.769141</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1593464048467703</v>
+        <v>0.1743904291197698</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04245403615310201</v>
+        <v>0.04355871036363321</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36.23922805144995</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1329782895.675335</v>
+        <v>1114431553.862263</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1036037953376746</v>
+        <v>0.09318338772973406</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03282021012874127</v>
+        <v>0.03546421163977929</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2003436984.579468</v>
+        <v>2661199641.651872</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09832797687085326</v>
+        <v>0.1079493493458113</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04655627696177177</v>
+        <v>0.04527087220523652</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4235252032.222828</v>
+        <v>4582845085.779009</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1534998686098478</v>
+        <v>0.1221631379414466</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04014941843570743</v>
+        <v>0.03940464051420263</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>186</v>
+      </c>
+      <c r="J17" t="n">
+        <v>388</v>
+      </c>
+      <c r="K17" t="n">
+        <v>51.72236127086085</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3573817704.957461</v>
+        <v>2729892183.465163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1170698012483491</v>
+        <v>0.1666439699121242</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02629749242526605</v>
+        <v>0.03360634768697085</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023430005.912072</v>
+        <v>1294042771.625537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1521511448749046</v>
+        <v>0.1502723424110766</v>
       </c>
       <c r="G19" t="n">
-        <v>0.019718739599128</v>
+        <v>0.01719247157339542</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1993377705.143575</v>
+        <v>1727038412.485046</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1515116012216205</v>
+        <v>0.1390612605289621</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03072507689415483</v>
+        <v>0.02314873648729961</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1653033270.44906</v>
+        <v>2198726544.148449</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09521680744435962</v>
+        <v>0.06189872306269147</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02887105617357408</v>
+        <v>0.03212127929669161</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2633793151.2928</v>
+        <v>2440661904.194879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1324937934518444</v>
+        <v>0.1323576885757044</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0434421964537117</v>
+        <v>0.04978688824318822</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1363814707.341988</v>
+        <v>1493870532.1459</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1770704432419506</v>
+        <v>0.1146892058228204</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04212087230521328</v>
+        <v>0.03921525060585929</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3978893500.814787</v>
+        <v>3149988461.7068</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1395924474917968</v>
+        <v>0.1023257007646658</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02597980225047217</v>
+        <v>0.02798603995747353</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1083860641.839278</v>
+        <v>1183968966.283276</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1036752754644385</v>
+        <v>0.1056713211554493</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0191459137827118</v>
+        <v>0.02319436424428284</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>930973296.9018117</v>
+        <v>1122635641.292002</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08473992878208497</v>
+        <v>0.08710065582384281</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03101270542475204</v>
+        <v>0.02441654730648655</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4368898937.179991</v>
+        <v>3484297143.580256</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1132770032757137</v>
+        <v>0.1245534881716564</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01669617005090957</v>
+        <v>0.01940906846385763</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>161</v>
+      </c>
+      <c r="J27" t="n">
+        <v>388</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2354560080.261793</v>
+        <v>2656710311.752368</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1451940556263134</v>
+        <v>0.1198114078229309</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04902523541932452</v>
+        <v>0.04763686204667276</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>92</v>
+      </c>
+      <c r="J28" t="n">
+        <v>387</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30.10728960811532</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4849790048.221957</v>
+        <v>5041114658.662744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1356807314565334</v>
+        <v>0.1407437002467387</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04069238446946873</v>
+        <v>0.03613242357318408</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>387</v>
+      </c>
+      <c r="K29" t="n">
+        <v>50.96300693311321</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1542812540.036245</v>
+        <v>1741809014.831809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08783868077474358</v>
+        <v>0.09748200505324398</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03420417467326849</v>
+        <v>0.02775133362168558</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>971901471.7203878</v>
+        <v>1456234257.743524</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1070370761772583</v>
+        <v>0.09434841969987315</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04159978130901743</v>
+        <v>0.0362626147130975</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1860494092.755029</v>
+        <v>1384033858.762072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08459509751884275</v>
+        <v>0.08379516312921642</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03468863909656823</v>
+        <v>0.03237114530567267</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2249609025.617299</v>
+        <v>2370803508.489831</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1482587729660294</v>
+        <v>0.1515171914698243</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05092496181615487</v>
+        <v>0.05205056465993552</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>982042245.1970557</v>
+        <v>1263078281.749383</v>
       </c>
       <c r="F34" t="n">
-        <v>0.103640336309209</v>
+        <v>0.08893574567677064</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02600749550317337</v>
+        <v>0.02065065473333401</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>970436168.3930854</v>
+        <v>1189314402.041756</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1131535957621975</v>
+        <v>0.07442775975243474</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03304091376135327</v>
+        <v>0.03927455938337669</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2525581771.726534</v>
+        <v>2648702168.553601</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1672317890691954</v>
+        <v>0.1210668376108065</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02299880068185037</v>
+        <v>0.01866342011477388</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2498693004.701931</v>
+        <v>2433673196.536733</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1009844302160448</v>
+        <v>0.07430269995937287</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04194658066164652</v>
+        <v>0.02652492392438993</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2018879073.28501</v>
+        <v>1490522388.180845</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08781573572601449</v>
+        <v>0.07694048854652057</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03537774099834437</v>
+        <v>0.02581832709113865</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2016259895.513186</v>
+        <v>1358614213.212412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1195316856499566</v>
+        <v>0.1680961689784486</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02171958824761077</v>
+        <v>0.02788413213472266</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1390142561.266721</v>
+        <v>1249146296.492918</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1479046520021566</v>
+        <v>0.1500612955049698</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05437876576453263</v>
+        <v>0.04829355139327109</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2045911564.975315</v>
+        <v>2837993779.424996</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1467473870274042</v>
+        <v>0.1519882850439819</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04063398611638023</v>
+        <v>0.03573361783870241</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3308856935.588035</v>
+        <v>2912098701.978058</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1235273453354592</v>
+        <v>0.07818579141969266</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03040544133775466</v>
+        <v>0.03268219550061566</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>170</v>
+      </c>
+      <c r="J42" t="n">
+        <v>387</v>
+      </c>
+      <c r="K42" t="n">
+        <v>32.45700638260968</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1954620827.227684</v>
+        <v>2598952319.515169</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1235983025215795</v>
+        <v>0.1615576413481606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02431494778989916</v>
+        <v>0.02335676236302308</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1682800508.965207</v>
+        <v>1757868828.448546</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09781934484657799</v>
+        <v>0.08918981916281493</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02934661665479109</v>
+        <v>0.03449892135169964</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2443418468.84986</v>
+        <v>2289678941.169449</v>
       </c>
       <c r="F45" t="n">
-        <v>0.119570587415917</v>
+        <v>0.1224259950198667</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04885132390184414</v>
+        <v>0.05379844449685537</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4432044402.441708</v>
+        <v>5707376016.992094</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1148559708679079</v>
+        <v>0.1135013762834551</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04621661567643071</v>
+        <v>0.04544937739324164</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>233</v>
+      </c>
+      <c r="J46" t="n">
+        <v>388</v>
+      </c>
+      <c r="K46" t="n">
+        <v>52.70868170496217</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4220749146.226286</v>
+        <v>4538063816.823046</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1457875834145931</v>
+        <v>0.1607908995134439</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03881880129510796</v>
+        <v>0.04626573953349769</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>174</v>
+      </c>
+      <c r="J47" t="n">
+        <v>387</v>
+      </c>
+      <c r="K47" t="n">
+        <v>47.47925272847984</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3697747322.43993</v>
+        <v>4498934501.318378</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08072685572324138</v>
+        <v>0.06841153097593421</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03240535569166998</v>
+        <v>0.03269860620526066</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>201</v>
+      </c>
+      <c r="J48" t="n">
+        <v>388</v>
+      </c>
+      <c r="K48" t="n">
+        <v>52.24101030776333</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1435291939.208808</v>
+        <v>1507528786.989025</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1700301206757334</v>
+        <v>0.1949806008585745</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02824230336522474</v>
+        <v>0.03440087331218336</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3690117817.211972</v>
+        <v>2545551946.549982</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1352584996314209</v>
+        <v>0.1692290385809918</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03224171893209832</v>
+        <v>0.03752132364111613</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="n">
+        <v>24.1718279247938</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1353240640.644066</v>
+        <v>1308128604.210325</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1558154995520733</v>
+        <v>0.1785870609451533</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04343537743047002</v>
+        <v>0.04902793922414489</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5003432064.887206</v>
+        <v>4996812893.141697</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09093453696284538</v>
+        <v>0.09927125518749028</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04156887055953084</v>
+        <v>0.05633543246572757</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>227</v>
+      </c>
+      <c r="J52" t="n">
+        <v>387</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50.4617380775502</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2302,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3762793281.147312</v>
+        <v>2444081658.107114</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1436640150133913</v>
+        <v>0.1763573965028842</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0238565966258199</v>
+        <v>0.02956408706942566</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="n">
+        <v>28.22918965961712</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3785411366.577205</v>
+        <v>4552401087.078727</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1255290343711664</v>
+        <v>0.1168207114292659</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04639241173586753</v>
+        <v>0.05079754849145472</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>206</v>
+      </c>
+      <c r="J54" t="n">
+        <v>388</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4319627191.1342</v>
+        <v>3659642978.9633</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2218428020898775</v>
+        <v>0.1611551418606452</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02980901229811922</v>
+        <v>0.02835785554045632</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>188</v>
+      </c>
+      <c r="J55" t="n">
+        <v>388</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1710754152.721291</v>
+        <v>1342221679.698389</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1359794517766272</v>
+        <v>0.1053500155116212</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05549924380356931</v>
+        <v>0.05521752111080207</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3730494881.247828</v>
+        <v>4002388684.350425</v>
       </c>
       <c r="F57" t="n">
-        <v>0.164181213679196</v>
+        <v>0.1510522570345341</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0179976443915498</v>
+        <v>0.01896033223471623</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>164</v>
+      </c>
+      <c r="J57" t="n">
+        <v>388</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1602041048.326075</v>
+        <v>1520663540.021634</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1349630711190349</v>
+        <v>0.1542569332887876</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03126558931928096</v>
+        <v>0.0258204437014269</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3328550478.031833</v>
+        <v>4284614653.744786</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1206892730488649</v>
+        <v>0.1178246926584665</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0324310123880766</v>
+        <v>0.03116992752887092</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>188</v>
+      </c>
+      <c r="J59" t="n">
+        <v>388</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2675137466.595435</v>
+        <v>2953245014.989611</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1788645310496386</v>
+        <v>0.1622788898302931</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02612920227944896</v>
+        <v>0.02392322797502648</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2968118844.651036</v>
+        <v>2480860148.737431</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1469457015348666</v>
+        <v>0.1713769826005151</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01993101347536719</v>
+        <v>0.02926401441162639</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2040225503.860322</v>
+        <v>1934412758.974869</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1448935418659548</v>
+        <v>0.1515897581965119</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04360290227356742</v>
+        <v>0.03661994516405714</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3960888031.728967</v>
+        <v>3457980048.214096</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1056212249643021</v>
+        <v>0.1043605229868831</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03073311269111234</v>
+        <v>0.0387705437959765</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>192</v>
+      </c>
+      <c r="J63" t="n">
+        <v>386</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4064475233.568196</v>
+        <v>5203161534.861421</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1309941092101682</v>
+        <v>0.1871314746349479</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02823353377900666</v>
+        <v>0.02221455904990277</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>192</v>
+      </c>
+      <c r="J64" t="n">
+        <v>388</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5897407442.077355</v>
+        <v>4301784250.495524</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1299323493581991</v>
+        <v>0.1184382048376614</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0287194210843005</v>
+        <v>0.02434522385674476</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>289</v>
+      </c>
+      <c r="J65" t="n">
+        <v>388</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4577915714.522453</v>
+        <v>4483884880.121888</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1038521866130451</v>
+        <v>0.1313996574425108</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0504676034761131</v>
+        <v>0.03732235382222773</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>192</v>
+      </c>
+      <c r="J66" t="n">
+        <v>387</v>
+      </c>
+      <c r="K66" t="n">
+        <v>49.60469088816436</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3354371905.105781</v>
+        <v>2691669484.837528</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08426789609001357</v>
+        <v>0.1023121405225619</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05052712588649732</v>
+        <v>0.04183158781664248</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5853295986.108339</v>
+        <v>3762156900.85341</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1549332622403857</v>
+        <v>0.1317981812525454</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05086378512530668</v>
+        <v>0.04874626369900215</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>211</v>
+      </c>
+      <c r="J68" t="n">
+        <v>387</v>
+      </c>
+      <c r="K68" t="n">
+        <v>46.39357937567492</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2030851212.922378</v>
+        <v>2032330127.9178</v>
       </c>
       <c r="F69" t="n">
-        <v>0.182410953943334</v>
+        <v>0.1625703802571628</v>
       </c>
       <c r="G69" t="n">
-        <v>0.058223406852869</v>
+        <v>0.04323948658898842</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2909,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3312309694.703206</v>
+        <v>2309806569.477592</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08404410531594121</v>
+        <v>0.07865436401434696</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04822161394597375</v>
+        <v>0.03785261549863576</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>53</v>
+      </c>
+      <c r="J70" t="n">
+        <v>387</v>
+      </c>
+      <c r="K70" t="n">
+        <v>22.93652242008557</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5164471669.927319</v>
+        <v>3993474767.693935</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1284283313812206</v>
+        <v>0.1224137455926982</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03109454586928871</v>
+        <v>0.0303733371014827</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>276</v>
+      </c>
+      <c r="J71" t="n">
+        <v>388</v>
+      </c>
+      <c r="K71" t="n">
+        <v>51.83094997339598</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2004923767.102817</v>
+        <v>1754491308.002973</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06579214206723569</v>
+        <v>0.0995711299492824</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03741266658572789</v>
+        <v>0.04499007767809869</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3369337956.4068</v>
+        <v>2244548088.518522</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1108143950105534</v>
+        <v>0.1055373796065871</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04798828266269504</v>
+        <v>0.04226878990939618</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3596663720.414441</v>
+        <v>2733145146.39067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1612524515232378</v>
+        <v>0.1844561112147606</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03375233582663981</v>
+        <v>0.02542239597152037</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1616838264.360302</v>
+        <v>1842044078.602161</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1491895567911244</v>
+        <v>0.122238272039864</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03381580991828424</v>
+        <v>0.0228349075421386</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3501424767.672139</v>
+        <v>3923422368.762466</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1229088108524207</v>
+        <v>0.1217128985615832</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02313670806186532</v>
+        <v>0.0211988399027052</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>183</v>
+      </c>
+      <c r="J76" t="n">
+        <v>387</v>
+      </c>
+      <c r="K76" t="n">
+        <v>50.02086448854125</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2196269441.631277</v>
+        <v>1561709326.716396</v>
       </c>
       <c r="F77" t="n">
-        <v>0.163822989556632</v>
+        <v>0.1816814188976774</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02481849642839733</v>
+        <v>0.03141532674128952</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4536340499.463793</v>
+        <v>4386054608.55199</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1087375749096735</v>
+        <v>0.1263941019739258</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05184365027226608</v>
+        <v>0.03914693239470315</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>193</v>
+      </c>
+      <c r="J78" t="n">
+        <v>388</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1213778614.703777</v>
+        <v>1850919375.675018</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1775243267063956</v>
+        <v>0.1706910425849112</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02655223284451188</v>
+        <v>0.02836543704557992</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5058943507.929111</v>
+        <v>4759160528.346804</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051548270147724</v>
+        <v>0.1079767409769357</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02456461257388769</v>
+        <v>0.03519072894873948</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>189</v>
+      </c>
+      <c r="J80" t="n">
+        <v>388</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3933536508.173573</v>
+        <v>5012706401.614371</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1275329221546295</v>
+        <v>0.1144093209900817</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03119926428728144</v>
+        <v>0.02210436450092867</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>180</v>
+      </c>
+      <c r="J81" t="n">
+        <v>388</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4572453178.338552</v>
+        <v>5476529826.42623</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1869545685888156</v>
+        <v>0.1526511893054877</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02565340023549921</v>
+        <v>0.02649177196918551</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>267</v>
+      </c>
+      <c r="J82" t="n">
+        <v>387</v>
+      </c>
+      <c r="K82" t="n">
+        <v>51.36025377778869</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1908286527.951762</v>
+        <v>2089591527.307311</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1232955763877714</v>
+        <v>0.1254285900625696</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03147408690315607</v>
+        <v>0.03612798427301991</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1784167102.039993</v>
+        <v>1823257426.288361</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07359426176656059</v>
+        <v>0.07614325387923039</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03545812711462074</v>
+        <v>0.03962845173924144</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2877112348.435254</v>
+        <v>2417488748.481246</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1851236214714711</v>
+        <v>0.1750670176865513</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05319555248043416</v>
+        <v>0.05188310952793058</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2750089031.33404</v>
+        <v>2481006248.392035</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1430914313846685</v>
+        <v>0.1347643692584611</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02268909108129669</v>
+        <v>0.02648365321444364</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>973461431.1005322</v>
+        <v>1465243393.916188</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613321838132463</v>
+        <v>0.1839800335583936</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03329098057267763</v>
+        <v>0.03630729935469587</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2341407627.538715</v>
+        <v>2363168019.133792</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1728230984288676</v>
+        <v>0.1409215196535809</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03548924677486267</v>
+        <v>0.02930832349472171</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3494953057.924921</v>
+        <v>3161591674.577061</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1381785149753146</v>
+        <v>0.1529769857197571</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02750870923194039</v>
+        <v>0.03089022322663154</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1654195892.679375</v>
+        <v>1995781096.641246</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1351047784329273</v>
+        <v>0.1132305773692452</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04287565430471699</v>
+        <v>0.05237039570461235</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1778634233.370548</v>
+        <v>2066347138.057168</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1329660894361915</v>
+        <v>0.1871914526897773</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06155970076368966</v>
+        <v>0.05736289263494498</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2581651076.397192</v>
+        <v>2902310934.645105</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08269917373308402</v>
+        <v>0.07375700884478308</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03177478338278279</v>
+        <v>0.04348403966644485</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3107018359.339419</v>
+        <v>4766031036.398679</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158019499836365</v>
+        <v>0.08657587419286689</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05207236889266968</v>
+        <v>0.04862802922630092</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>184</v>
+      </c>
+      <c r="J93" t="n">
+        <v>387</v>
+      </c>
+      <c r="K93" t="n">
+        <v>50.91377539834033</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1624715591.158301</v>
+        <v>1879903299.216408</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1459451420533883</v>
+        <v>0.1278565883109871</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02658366944100173</v>
+        <v>0.02733831939519146</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2244700759.2211</v>
+        <v>2619128264.360156</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09573258192274668</v>
+        <v>0.1067896411303853</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05088587631528968</v>
+        <v>0.04661965003934423</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2175886996.081545</v>
+        <v>1685918972.403316</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0932317130021012</v>
+        <v>0.1154302348639102</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0310134880466075</v>
+        <v>0.03241005896073667</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4301558581.338354</v>
+        <v>4782770208.147406</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1772460893277017</v>
+        <v>0.1752540048447141</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02190803659927642</v>
+        <v>0.02739475587469723</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>201</v>
+      </c>
+      <c r="J97" t="n">
+        <v>388</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3701860673.583081</v>
+        <v>2483782541.333632</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1285185377859475</v>
+        <v>0.1170959260870507</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02314341367726536</v>
+        <v>0.02027400656755574</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>99</v>
+      </c>
+      <c r="J98" t="n">
+        <v>387</v>
+      </c>
+      <c r="K98" t="n">
+        <v>23.72114258726194</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2166988093.177937</v>
+        <v>3365355735.733495</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1134668990174352</v>
+        <v>0.1263462766921274</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02150222091628319</v>
+        <v>0.02935637385328889</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3862662797.414481</v>
+        <v>3951815967.162033</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1211874639321596</v>
+        <v>0.1397306265796809</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01711527018293917</v>
+        <v>0.02448490097351478</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>178</v>
+      </c>
+      <c r="J100" t="n">
+        <v>388</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2808198174.692922</v>
+        <v>3247898886.890873</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1461599210846744</v>
+        <v>0.1980507999018395</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04719059993730927</v>
+        <v>0.03820195700573328</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
